--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3609117.290488433</v>
+        <v>3604812.167491365</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7630903.030217162</v>
+        <v>7630903.030217161</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>19.72734108435045</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666381</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>130.1712092340065</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>64.33077982535487</v>
+        <v>85.36332079774525</v>
       </c>
       <c r="U3" t="n">
         <v>187.52558716632</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>52.21594625443431</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>237.2754747618972</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.25188473404938</v>
+        <v>12.25188473404937</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>21.42133707500528</v>
       </c>
       <c r="I5" t="n">
-        <v>92.8578877276004</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425884</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>66.48345071296407</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937514</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074793</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>141.3629830843606</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>9.388289877998863</v>
       </c>
     </row>
     <row r="7">
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>113.3237299842591</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>164.6615622377247</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>228.0498062489725</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708285</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>43.15376166915647</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904878</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.27697994470635</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>67.9630617109303</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>76.76172573468223</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>38.44547188632115</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>37.19933342822892</v>
+        <v>148.0280580960837</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>181.087551684105</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>261.7047073980816</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>26.12116916215743</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>71.39698738222857</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>34.21058558914839</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710067</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>135.3135037226519</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>90.48716302792806</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>68.07731664460631</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>40.36264995190481</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>53.07327741456131</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.88550891432327</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>66.12869588327324</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>124.936238874645</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>35.03063761899546</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>161.9163864599159</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="C2" t="n">
-        <v>161.9163864599159</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="D2" t="n">
-        <v>161.9163864599159</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="E2" t="n">
         <v>161.9163864599159</v>
       </c>
       <c r="F2" t="n">
-        <v>154.9708857107125</v>
+        <v>154.9708857107124</v>
       </c>
       <c r="G2" t="n">
         <v>141.7407511348962</v>
@@ -4330,52 +4330,52 @@
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678535</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159059007</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079192</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644761</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123834</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020267</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262255</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262255</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262255</v>
+        <v>750.10234866528</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262255</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262255</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="W2" t="n">
-        <v>672.2420264262255</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="X2" t="n">
-        <v>540.7559564928856</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="Y2" t="n">
-        <v>351.3361714764008</v>
+        <v>181.8429936158254</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116.8624079336487</v>
+        <v>323.1739116400124</v>
       </c>
       <c r="C3" t="n">
-        <v>116.8624079336487</v>
+        <v>323.1739116400124</v>
       </c>
       <c r="D3" t="n">
-        <v>116.8624079336487</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="E3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
         <v>15.0020469733056</v>
@@ -4412,49 +4412,49 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024242</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772652</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546602</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652798</v>
+        <v>598.8192732198763</v>
       </c>
       <c r="T3" t="n">
-        <v>685.1217629831032</v>
+        <v>512.5936966564973</v>
       </c>
       <c r="U3" t="n">
-        <v>495.7019779666184</v>
+        <v>323.1739116400124</v>
       </c>
       <c r="V3" t="n">
-        <v>495.7019779666184</v>
+        <v>323.1739116400124</v>
       </c>
       <c r="W3" t="n">
-        <v>306.2821929501335</v>
+        <v>323.1739116400124</v>
       </c>
       <c r="X3" t="n">
-        <v>306.2821929501335</v>
+        <v>323.1739116400124</v>
       </c>
       <c r="Y3" t="n">
-        <v>116.8624079336487</v>
+        <v>323.1739116400124</v>
       </c>
     </row>
     <row r="4">
@@ -4494,46 +4494,46 @@
         <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230173</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170711</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396326</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="T4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="U4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="V4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="W4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="X4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>773.1354937283943</v>
+        <v>802.745127975805</v>
       </c>
       <c r="C5" t="n">
-        <v>773.1354937283943</v>
+        <v>433.7826110353932</v>
       </c>
       <c r="D5" t="n">
-        <v>533.4632969992052</v>
+        <v>75.51691242864274</v>
       </c>
       <c r="E5" t="n">
-        <v>147.675044400961</v>
+        <v>75.51691242864274</v>
       </c>
       <c r="F5" t="n">
-        <v>140.7295436517575</v>
+        <v>68.57141167943927</v>
       </c>
       <c r="G5" t="n">
-        <v>128.3539025062531</v>
+        <v>56.19577053393485</v>
       </c>
       <c r="H5" t="n">
-        <v>128.3539025062531</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017217</v>
+        <v>111.6705539017225</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746978</v>
+        <v>277.9807166747</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030763</v>
+        <v>521.2049416030791</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709181</v>
+        <v>823.5081935709215</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582752</v>
+        <v>1135.316836582756</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.41363507924</v>
+        <v>1416.413635079245</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332759</v>
+        <v>1621.822248332763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837885</v>
+        <v>1727.90281583789</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837885</v>
+        <v>1703.718566540658</v>
       </c>
       <c r="S5" t="n">
-        <v>1727.902815837885</v>
+        <v>1562.810726301007</v>
       </c>
       <c r="T5" t="n">
-        <v>1516.04348097432</v>
+        <v>1562.810726301007</v>
       </c>
       <c r="U5" t="n">
-        <v>1516.04348097432</v>
+        <v>1562.810726301007</v>
       </c>
       <c r="V5" t="n">
-        <v>1516.04348097432</v>
+        <v>1562.810726301007</v>
       </c>
       <c r="W5" t="n">
-        <v>1163.274825704206</v>
+        <v>1562.810726301007</v>
       </c>
       <c r="X5" t="n">
-        <v>1163.274825704206</v>
+        <v>1189.344968039927</v>
       </c>
       <c r="Y5" t="n">
-        <v>773.1354937283943</v>
+        <v>1189.344968039927</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>628.0963861861462</v>
+        <v>368.2485406033403</v>
       </c>
       <c r="C6" t="n">
-        <v>453.6433569050192</v>
+        <v>193.7955113222133</v>
       </c>
       <c r="D6" t="n">
-        <v>304.708947243768</v>
+        <v>193.7955113222133</v>
       </c>
       <c r="E6" t="n">
-        <v>145.4714922383125</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="F6" t="n">
-        <v>145.4714922383125</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="G6" t="n">
-        <v>145.4714922383125</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="H6" t="n">
-        <v>78.31649151814673</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787539</v>
+        <v>61.66788464787565</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806064</v>
+        <v>186.157723980607</v>
       </c>
       <c r="L6" t="n">
-        <v>399.872217118998</v>
+        <v>399.8722171189992</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223503</v>
+        <v>668.6238185223519</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352485</v>
+        <v>958.8971200352505</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228319</v>
+        <v>1202.220686228322</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639509</v>
+        <v>1378.176233639512</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.87866090655</v>
+        <v>1445.878660906553</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703774</v>
+        <v>1445.878660906553</v>
       </c>
       <c r="S6" t="n">
-        <v>1258.30937869937</v>
+        <v>1303.087768902149</v>
       </c>
       <c r="T6" t="n">
-        <v>1258.30937869937</v>
+        <v>1303.087768902149</v>
       </c>
       <c r="U6" t="n">
-        <v>1258.30937869937</v>
+        <v>1074.972626857705</v>
       </c>
       <c r="V6" t="n">
-        <v>1258.30937869937</v>
+        <v>839.8205186259624</v>
       </c>
       <c r="W6" t="n">
-        <v>1004.072021971168</v>
+        <v>585.5831618977609</v>
       </c>
       <c r="X6" t="n">
-        <v>1004.072021971168</v>
+        <v>377.731661692228</v>
       </c>
       <c r="Y6" t="n">
-        <v>796.3117232062143</v>
+        <v>368.2485406033403</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>203.4942392446646</v>
+        <v>149.026470442272</v>
       </c>
       <c r="C7" t="n">
-        <v>34.55805631675769</v>
+        <v>149.026470442272</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675779</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574694</v>
+        <v>64.24066662574724</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584116</v>
+        <v>132.1299861584122</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347973</v>
+        <v>206.9680378347981</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195368</v>
+        <v>287.8841338195379</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934719</v>
+        <v>342.3101561934732</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858007</v>
+        <v>369.8190495858021</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858007</v>
+        <v>369.8190495858021</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858007</v>
+        <v>369.8190495858021</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858007</v>
+        <v>369.8190495858021</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858007</v>
+        <v>369.8190495858021</v>
       </c>
       <c r="U7" t="n">
-        <v>203.4942392446646</v>
+        <v>369.8190495858021</v>
       </c>
       <c r="V7" t="n">
-        <v>203.4942392446646</v>
+        <v>369.8190495858021</v>
       </c>
       <c r="W7" t="n">
-        <v>203.4942392446646</v>
+        <v>369.8190495858021</v>
       </c>
       <c r="X7" t="n">
-        <v>203.4942392446646</v>
+        <v>369.8190495858021</v>
       </c>
       <c r="Y7" t="n">
-        <v>203.4942392446646</v>
+        <v>149.026470442272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>545.2988805405387</v>
+        <v>1254.274944645541</v>
       </c>
       <c r="C8" t="n">
-        <v>545.2988805405387</v>
+        <v>885.3124277051295</v>
       </c>
       <c r="D8" t="n">
-        <v>545.2988805405387</v>
+        <v>527.0467290983789</v>
       </c>
       <c r="E8" t="n">
-        <v>545.2988805405387</v>
+        <v>141.2584765001347</v>
       </c>
       <c r="F8" t="n">
-        <v>134.3129757509311</v>
+        <v>134.3129757509312</v>
       </c>
       <c r="G8" t="n">
         <v>122.3223344947425</v>
@@ -4801,55 +4801,55 @@
         <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711875</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578731</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.9606125456</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172451</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642788</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>1992.735513391115</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>1992.735513391115</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>1661.672626047544</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="W8" t="n">
-        <v>1308.90397077743</v>
+        <v>1484.628284290968</v>
       </c>
       <c r="X8" t="n">
-        <v>935.4382125163504</v>
+        <v>1484.628284290968</v>
       </c>
       <c r="Y8" t="n">
-        <v>545.2988805405387</v>
+        <v>1484.628284290968</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>458.9012440949851</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C9" t="n">
-        <v>458.9012440949851</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>458.9012440949851</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9012440949851</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3666861218701</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581919</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562345</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504525</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104405</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789504</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128149</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.75304868905</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.22704733349</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="S9" t="n">
-        <v>1627.262386835208</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="T9" t="n">
-        <v>1432.552065309184</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="U9" t="n">
-        <v>1363.902508025416</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.750399793674</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W9" t="n">
-        <v>874.5130430654719</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X9" t="n">
-        <v>666.6615428599391</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>458.9012440949851</v>
+        <v>840.7439854791098</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>231.1630260146242</v>
+        <v>230.6430656672517</v>
       </c>
       <c r="C10" t="n">
-        <v>231.1630260146242</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="D10" t="n">
-        <v>231.1630260146242</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="E10" t="n">
-        <v>231.1630260146242</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="F10" t="n">
-        <v>231.1630260146242</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="G10" t="n">
-        <v>231.1630260146242</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="H10" t="n">
-        <v>153.6259293129249</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809315</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981551</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018947</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.141159492734</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377471</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033672</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406007</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470406007</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470406007</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470406007</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="U10" t="n">
-        <v>231.1630260146242</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="V10" t="n">
-        <v>231.1630260146242</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="W10" t="n">
-        <v>231.1630260146242</v>
+        <v>458.6326165652691</v>
       </c>
       <c r="X10" t="n">
-        <v>231.1630260146242</v>
+        <v>230.6430656672517</v>
       </c>
       <c r="Y10" t="n">
-        <v>231.1630260146242</v>
+        <v>230.6430656672517</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,7 +5029,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,19 +5038,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349515</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349515</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1550.665004989558</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2102.574735228845</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2526.197884723914</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2526.197884723914</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511905</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429802</v>
@@ -5193,7 +5193,7 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199803</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993916</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1578.981115722978</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X13" t="n">
-        <v>1350.99156482496</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.19898568143</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5266,28 +5266,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>251.5626541092265</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.6605733532801</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7243904253733</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
         <v>484.8112968429802</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1794.544361637675</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1539.859873431788</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1250.442703394828</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1022.45315249681</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>801.6605733532801</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385792</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>2231.588527385792</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>2726.914133601551</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3324.292621228103</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>3482.038612289356</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>721.7774158311364</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>552.8412329032295</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5749,10 +5749,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>924.8344286397185</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2104.342122433613</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2420.578064224546</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2237.723229879451</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2018.121764902392</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1729.046538246589</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1474.362050040702</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1184.944880003742</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>956.9553291057244</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,13 +5983,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075802</v>
@@ -5998,40 +5998,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1022.872235754091</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C25" t="n">
-        <v>853.9360528261844</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D25" t="n">
-        <v>703.8194134138487</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2345.361232772917</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487568</v>
+        <v>2125.759767795858</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1836.684541140056</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W25" t="n">
-        <v>1653.302830625878</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X25" t="n">
-        <v>1425.313279727861</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y25" t="n">
-        <v>1204.520700584331</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6217,61 +6217,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3175.34112979674</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C28" t="n">
-        <v>3006.404946868833</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D28" t="n">
-        <v>2856.288307456497</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>2708.375213874104</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>2561.485266376194</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4440.932614305901</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4151.857387650099</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3897.172899444212</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3805.771724668527</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3577.782173770509</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3356.989594626979</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6457,55 +6457,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>119.2902967703784</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>119.2902967703784</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2091.550948547921</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.866460342034</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W31" t="n">
-        <v>1547.449290305074</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>1319.459739407056</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>1098.667160263526</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>184.7035232280583</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>184.7035232280583</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.547769317909</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C34" t="n">
-        <v>593.6115863900021</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>443.4949469776664</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>443.4949469776664</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>443.4949469776664</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>276.2988476925463</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>134.5870165347444</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2393.353712454441</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2210.498878109345</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1990.897413132287</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1701.822186476484</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1447.137698270597</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1157.720528233637</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,13 +6949,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6970,7 +6970,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.793114229131</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>866.4638174991042</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1026.887310050512</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1654.485273605118</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2206.395003844405</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3240.397708662309</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3932.255922673039</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3642.838752636078</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3642.838752636078</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>3422.046173492548</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311171</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>741.843151638089</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>741.843151638089</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>591.7265122257533</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>443.8134186433601</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7642,7 +7642,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7651,7 +7651,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
@@ -7663,34 +7663,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7733,22 +7733,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>249.3236649083621</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>105.0969227051391</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>24.81829093850939</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>40.25407754796423</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24372,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>75.0369752643406</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>13.3019692955605</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>196.0358353086629</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1071577446378</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>6.257951202385186</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>40.90318636666071</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>13.30196929556038</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>96.94647126761403</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>101.1181252153546</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>20.48480914828626</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>251.4923607175955</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710685</v>
+        <v>779989.6813710686</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710693</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="F2" t="n">
+        <v>766789.2697055063</v>
+      </c>
+      <c r="G2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="G2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="H2" t="n">
-        <v>766789.2697055059</v>
-      </c>
       <c r="I2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="M2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="N2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="O2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253126</v>
+        <v>270592.3620253136</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.054023194</v>
+        <v>115410.0540231916</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742644</v>
+        <v>601443.2075742654</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854468</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881974</v>
+        <v>62913.63765882009</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197505</v>
+        <v>27875.25362197454</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515978</v>
+        <v>157146.3805515981</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263462</v>
+        <v>206604.4229263458</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888973</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26438,10 +26438,10 @@
         <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189203</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189201</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
@@ -26453,7 +26453,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.5839718919</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936819</v>
+        <v>76435.73471936828</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587233</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-146889.5863955203</v>
       </c>
       <c r="C6" t="n">
-        <v>226357.1617000422</v>
+        <v>226357.1617000417</v>
       </c>
       <c r="D6" t="n">
-        <v>405177.5554031056</v>
+        <v>405177.5554031077</v>
       </c>
       <c r="E6" t="n">
-        <v>48176.94833544256</v>
+        <v>47829.56908108448</v>
       </c>
       <c r="F6" t="n">
-        <v>649620.1559097068</v>
+        <v>649272.7766553501</v>
       </c>
       <c r="G6" t="n">
-        <v>649620.1559097068</v>
+        <v>649272.77665535</v>
       </c>
       <c r="H6" t="n">
-        <v>649620.1559097068</v>
+        <v>649272.7766553499</v>
       </c>
       <c r="I6" t="n">
-        <v>649620.155909707</v>
+        <v>649272.7766553498</v>
       </c>
       <c r="J6" t="n">
-        <v>600555.2111811617</v>
+        <v>600207.8319268051</v>
       </c>
       <c r="K6" t="n">
-        <v>586706.518250887</v>
+        <v>586359.1389965296</v>
       </c>
       <c r="L6" t="n">
-        <v>621744.9022877315</v>
+        <v>621397.5230333753</v>
       </c>
       <c r="M6" t="n">
-        <v>492473.7753581089</v>
+        <v>492126.3961037517</v>
       </c>
       <c r="N6" t="n">
-        <v>649620.1559097067</v>
+        <v>649272.7766553498</v>
       </c>
       <c r="O6" t="n">
-        <v>649620.1559097068</v>
+        <v>649272.7766553499</v>
       </c>
       <c r="P6" t="n">
-        <v>649620.1559097068</v>
+        <v>649272.7766553498</v>
       </c>
     </row>
   </sheetData>
@@ -26709,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950617</v>
+        <v>758.8996292950626</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376851</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594712</v>
+        <v>431.9757039594724</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261643</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26804,7 +26804,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26813,10 +26813,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26831,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821572</v>
+        <v>210.4296883821579</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262346</v>
+        <v>94.81103524262153</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039891</v>
+        <v>514.2648358039899</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931512</v>
+        <v>244.4501167931524</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666932</v>
+        <v>110.1392527666908</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734843</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931512</v>
+        <v>244.4501167931526</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666928</v>
+        <v>110.1392527666908</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734843</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931512</v>
+        <v>244.4501167931524</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666932</v>
+        <v>110.1392527666908</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734843</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971606</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>362.2030289879114</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -27435,19 +27435,19 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871033</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038149</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>239.5598914444626</v>
+        <v>182.205513512149</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897336</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27463,10 +27463,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,13 +27475,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.9045589040915</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846321</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>131.0788179666464</v>
+        <v>110.046276994256</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377097</v>
+        <v>38.33818124377091</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459965</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098441</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>127.6160339275028</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825419</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,16 +27578,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709389</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159727</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>154.5643095410619</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>117.4075668587858</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>286.8089189964682</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.85788772760026</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425906</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372555</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
         <v>251.1015846853496</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>29.98692763949724</v>
+        <v>96.4703783524613</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.32085084937507</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074782</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27751,19 +27751,19 @@
         <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>196.2944058993055</v>
       </c>
     </row>
     <row r="7">
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>35.29174303395327</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,10 +27794,10 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304048</v>
+        <v>30.24193919304037</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589153</v>
+        <v>36.91115760589139</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166224</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130602</v>
@@ -27830,7 +27830,7 @@
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>121.5828212535896</v>
+        <v>286.2443834913143</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>154.6840354145081</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>164.9184962004474</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721419</v>
+        <v>11.39188093250797</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>157.8575122571382</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28028,13 +28028,13 @@
         <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>71.77808562656297</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923912</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,28 +28055,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425539</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>248.0775264502699</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29094,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>8.360392837795219e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31123,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085673</v>
+        <v>3.050852781085676</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429365</v>
+        <v>31.24454604429369</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428055</v>
+        <v>117.6180018428057</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286703</v>
+        <v>258.9373162286707</v>
       </c>
       <c r="K5" t="n">
-        <v>388.079914452027</v>
+        <v>388.0799144520274</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511777</v>
+        <v>481.4474502511783</v>
       </c>
       <c r="M5" t="n">
-        <v>535.70305339681</v>
+        <v>535.7030533968107</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610697</v>
+        <v>544.3712888610704</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191491</v>
+        <v>514.0343715191497</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860965</v>
+        <v>438.716443486097</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634657</v>
+        <v>329.4577782634661</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098731</v>
+        <v>191.6431310098733</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898984</v>
+        <v>69.52130774898993</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920254</v>
+        <v>13.35510804920256</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868538</v>
+        <v>0.2440682224868541</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030887</v>
+        <v>1.632350146030889</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403515</v>
+        <v>15.76506588403517</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062486</v>
+        <v>56.20152915062493</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475937</v>
+        <v>154.2212916475938</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316631</v>
+        <v>263.5887514316634</v>
       </c>
       <c r="L6" t="n">
-        <v>354.427605172189</v>
+        <v>354.4276051721894</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658086</v>
+        <v>413.600297965809</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468667</v>
+        <v>424.5470671468672</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374454</v>
+        <v>388.3776244374458</v>
       </c>
       <c r="P6" t="n">
-        <v>311.707283587249</v>
+        <v>311.7072835872494</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547498</v>
+        <v>208.36806425475</v>
       </c>
       <c r="R6" t="n">
-        <v>101.348897663216</v>
+        <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947721</v>
+        <v>30.32018801947725</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378881</v>
+        <v>6.579516597378889</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757163</v>
+        <v>0.1073914569757164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236996</v>
+        <v>1.368507528236998</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377985</v>
+        <v>12.16727602377986</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734532</v>
+        <v>41.15475366734537</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635563</v>
+        <v>96.75348224635574</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260801</v>
+        <v>158.9956928260803</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162531</v>
+        <v>203.4597465162533</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399139</v>
+        <v>214.5197755399141</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528489</v>
+        <v>209.4189747528491</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275348</v>
+        <v>193.432318627535</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514999</v>
+        <v>165.5147650515001</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235543</v>
+        <v>114.5938440235545</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054711</v>
+        <v>61.53307486054718</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391201</v>
+        <v>23.84935392391204</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830801</v>
+        <v>5.847259438830808</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656352</v>
+        <v>0.07464586517656362</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933231</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409261</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258717</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840433</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934787</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839016</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.253840119091</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662303</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.61767849284</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141322</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699499</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464135</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095122</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913581</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616803</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730384</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152849</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.898513388451</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475636</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349509</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867498</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053863</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057852</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017481</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420142</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595399</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099895</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451905</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153097</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735642</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978883</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,37 +31837,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>403.852496713802</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>172.8142548092783</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32074,13 +32074,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>297.1808238847171</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32089,16 +32089,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,31 +32311,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N18" t="n">
-        <v>290.6810969936906</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>351.608251103502</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>361.5531172119652</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>381.2855185329316</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>152.5685698206127</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>537.262354434964</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>218.6425359394812</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33894,34 +33894,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>484.1423712692491</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>167.4835451665585</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>265.5442652399242</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646075</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061149</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520823</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400495</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198405</v>
+        <v>77.8914117019844</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070464</v>
+        <v>167.9900634070469</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811905</v>
+        <v>245.681035281191</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695373</v>
+        <v>305.356820169538</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644788</v>
+        <v>314.9582252644795</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974623</v>
+        <v>283.9361600974629</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308269</v>
+        <v>207.4834477308274</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890162</v>
+        <v>107.1520883890166</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092697</v>
+        <v>27.38366498092714</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573041</v>
+        <v>125.7473124573044</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923148</v>
+        <v>215.8732253923152</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437903</v>
+        <v>271.4662640437907</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635334</v>
+        <v>293.2053550635338</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930009</v>
+        <v>245.7813799930014</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729188</v>
+        <v>177.7328761729192</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872827</v>
+        <v>68.38629016872852</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554469</v>
+        <v>29.98243465554489</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501483</v>
+        <v>68.57507023501506</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230881</v>
+        <v>75.59399159230907</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761568</v>
+        <v>81.73343028761593</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569199</v>
+        <v>54.97578017569222</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235231</v>
+        <v>27.78676100235251</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142398</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808911</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140561</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866206</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873107</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974043</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109608</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183905</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409397</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169991</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818061</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.13827825102</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319515</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440066</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332334</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892935</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850744</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563556</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806458</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.896613176781</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769708</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084184</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>272.5107846304687</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>27.13475084531435</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>159.3393849103582</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35737,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N18" t="n">
-        <v>159.3393849103574</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>217.6338436891718</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>219.4190832899469</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>249.9438064495983</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>25.73094315394598</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>394.6661099905195</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>91.80490927281453</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>350.1679638549188</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>25.34951124454015</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>134.202553156591</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3604812.167491365</v>
+        <v>3606572.69779415</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7630903.030217161</v>
+        <v>7630903.030217162</v>
       </c>
     </row>
     <row r="11">
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>19.72734108435045</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>143.2690424640644</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="3">
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>85.36332079774525</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>92.73964154763118</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.21594625443453</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.25188473404937</v>
+        <v>279.412933769338</v>
       </c>
       <c r="H5" t="n">
-        <v>21.42133707500528</v>
+        <v>308.2302560714734</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.85788772760026</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>23.94240680425884</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372554</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.4703783524613</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074782</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>125.6115100445975</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.388289877998863</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>113.3237299842591</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.85894767157234</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>228.0498062489725</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>167.8403751351021</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87073484362677</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.27697994470635</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>238.4650355671119</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>119.5293992401231</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>38.44547188632115</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,10 +1587,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>49.48749137895568</v>
       </c>
       <c r="W13" t="n">
-        <v>148.0280580960837</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>19.91555826189101</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1852,13 +1852,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797035</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>111.3213230702137</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>71.76895293959856</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>34.21058558914839</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710067</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2608,10 +2608,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
-        <v>135.3135037226519</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,13 +2961,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>118.4817021252624</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>245.8796921214428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>53.07327741456131</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>155.0500112286387</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>112.0357928422982</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>123.9815576456779</v>
+        <v>95.77623638693835</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>249.7682289193606</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181.8429936158254</v>
+        <v>293.4024563932556</v>
       </c>
       <c r="C2" t="n">
-        <v>181.8429936158254</v>
+        <v>293.4024563932556</v>
       </c>
       <c r="D2" t="n">
-        <v>181.8429936158254</v>
+        <v>293.4024563932556</v>
       </c>
       <c r="E2" t="n">
-        <v>161.9163864599159</v>
+        <v>293.4024563932556</v>
       </c>
       <c r="F2" t="n">
-        <v>154.9708857107124</v>
+        <v>286.4569556440522</v>
       </c>
       <c r="G2" t="n">
         <v>141.7407511348962</v>
@@ -4327,55 +4327,55 @@
         <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>750.10234866528</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="S2" t="n">
-        <v>750.10234866528</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="T2" t="n">
-        <v>750.10234866528</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="U2" t="n">
-        <v>560.6825636487952</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="V2" t="n">
-        <v>371.2627786323103</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="W2" t="n">
-        <v>371.2627786323103</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="X2" t="n">
-        <v>181.8429936158254</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="Y2" t="n">
-        <v>181.8429936158254</v>
+        <v>293.4024563932556</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>323.1739116400124</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>323.1739116400124</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>174.2395019787611</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024213</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546602</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>750.10234866528</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198763</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="T3" t="n">
-        <v>512.5936966564973</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="U3" t="n">
-        <v>323.1739116400124</v>
+        <v>487.5180226099429</v>
       </c>
       <c r="V3" t="n">
-        <v>323.1739116400124</v>
+        <v>298.0982375934582</v>
       </c>
       <c r="W3" t="n">
-        <v>323.1739116400124</v>
+        <v>108.6784525769735</v>
       </c>
       <c r="X3" t="n">
-        <v>323.1739116400124</v>
+        <v>108.6784525769735</v>
       </c>
       <c r="Y3" t="n">
-        <v>323.1739116400124</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170723</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396343</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.745127975805</v>
+        <v>728.8783828926398</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7826110353932</v>
+        <v>728.8783828926398</v>
       </c>
       <c r="D5" t="n">
-        <v>75.51691242864274</v>
+        <v>728.8783828926398</v>
       </c>
       <c r="E5" t="n">
-        <v>75.51691242864274</v>
+        <v>728.8783828926398</v>
       </c>
       <c r="F5" t="n">
-        <v>68.57141167943927</v>
+        <v>721.9328821434364</v>
       </c>
       <c r="G5" t="n">
-        <v>56.19577053393485</v>
+        <v>439.6975955077414</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675779</v>
+        <v>128.353902506253</v>
       </c>
       <c r="I5" t="n">
         <v>34.55805631675779</v>
@@ -4570,10 +4570,10 @@
         <v>111.6705539017225</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166747</v>
+        <v>277.980716674699</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030791</v>
+        <v>521.2049416030782</v>
       </c>
       <c r="M5" t="n">
         <v>823.5081935709215</v>
@@ -4594,25 +4594,25 @@
         <v>1703.718566540658</v>
       </c>
       <c r="S5" t="n">
-        <v>1562.810726301007</v>
+        <v>1703.718566540658</v>
       </c>
       <c r="T5" t="n">
-        <v>1562.810726301007</v>
+        <v>1703.718566540658</v>
       </c>
       <c r="U5" t="n">
-        <v>1562.810726301007</v>
+        <v>1450.080602212022</v>
       </c>
       <c r="V5" t="n">
-        <v>1562.810726301007</v>
+        <v>1119.017714868452</v>
       </c>
       <c r="W5" t="n">
-        <v>1562.810726301007</v>
+        <v>1119.017714868452</v>
       </c>
       <c r="X5" t="n">
-        <v>1189.344968039927</v>
+        <v>1119.017714868452</v>
       </c>
       <c r="Y5" t="n">
-        <v>1189.344968039927</v>
+        <v>728.8783828926398</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>368.2485406033403</v>
+        <v>898.2443217423946</v>
       </c>
       <c r="C6" t="n">
-        <v>193.7955113222133</v>
+        <v>723.7912924612676</v>
       </c>
       <c r="D6" t="n">
-        <v>193.7955113222133</v>
+        <v>574.8568828000164</v>
       </c>
       <c r="E6" t="n">
-        <v>34.55805631675779</v>
+        <v>415.6194277945608</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675779</v>
+        <v>269.0848698214457</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675779</v>
+        <v>132.0028829354056</v>
       </c>
       <c r="H6" t="n">
         <v>34.55805631675779</v>
@@ -4670,28 +4670,28 @@
         <v>1445.878660906553</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906553</v>
+        <v>1401.100270703778</v>
       </c>
       <c r="S6" t="n">
-        <v>1303.087768902149</v>
+        <v>1401.100270703778</v>
       </c>
       <c r="T6" t="n">
-        <v>1303.087768902149</v>
+        <v>1401.100270703778</v>
       </c>
       <c r="U6" t="n">
-        <v>1074.972626857705</v>
+        <v>1401.100270703778</v>
       </c>
       <c r="V6" t="n">
-        <v>839.8205186259624</v>
+        <v>1401.100270703778</v>
       </c>
       <c r="W6" t="n">
-        <v>585.5831618977609</v>
+        <v>1401.100270703778</v>
       </c>
       <c r="X6" t="n">
-        <v>377.731661692228</v>
+        <v>1274.219957527416</v>
       </c>
       <c r="Y6" t="n">
-        <v>368.2485406033403</v>
+        <v>1066.459658762463</v>
       </c>
     </row>
     <row r="7">
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>149.026470442272</v>
+        <v>332.5877893114866</v>
       </c>
       <c r="C7" t="n">
-        <v>149.026470442272</v>
+        <v>332.5877893114866</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675779</v>
+        <v>182.4711498991509</v>
       </c>
       <c r="E7" t="n">
         <v>34.55805631675779</v>
@@ -4746,31 +4746,31 @@
         <v>369.8190495858021</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858021</v>
+        <v>332.5877893114866</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858021</v>
+        <v>332.5877893114866</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858021</v>
+        <v>332.5877893114866</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858021</v>
+        <v>332.5877893114866</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858021</v>
+        <v>332.5877893114866</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858021</v>
+        <v>332.5877893114866</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858021</v>
+        <v>332.5877893114866</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495858021</v>
+        <v>332.5877893114866</v>
       </c>
       <c r="Y7" t="n">
-        <v>149.026470442272</v>
+        <v>332.5877893114866</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1254.274944645541</v>
+        <v>707.8891122510345</v>
       </c>
       <c r="C8" t="n">
-        <v>885.3124277051295</v>
+        <v>707.8891122510345</v>
       </c>
       <c r="D8" t="n">
-        <v>527.0467290983789</v>
+        <v>707.8891122510345</v>
       </c>
       <c r="E8" t="n">
-        <v>141.2584765001347</v>
+        <v>707.8891122510345</v>
       </c>
       <c r="F8" t="n">
-        <v>134.3129757509312</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G8" t="n">
         <v>122.3223344947425</v>
@@ -4849,7 +4849,7 @@
         <v>1484.628284290968</v>
       </c>
       <c r="Y8" t="n">
-        <v>1484.628284290968</v>
+        <v>1094.488952315156</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>941.5261380428188</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>767.0731087616919</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>618.1386991004406</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>458.9012440949851</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>312.3666861218701</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I9" t="n">
         <v>43.36919653809306</v>
@@ -4907,28 +4907,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1745.745249409541</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1745.745249409541</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T9" t="n">
-        <v>1745.745249409541</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>1525.353274033374</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>1317.501773827841</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791098</v>
+        <v>1109.741475062887</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>230.6430656672517</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="C10" t="n">
-        <v>61.70688273934482</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="D10" t="n">
-        <v>61.70688273934482</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="E10" t="n">
-        <v>61.70688273934482</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="F10" t="n">
-        <v>61.70688273934482</v>
+        <v>350.5764790535417</v>
       </c>
       <c r="G10" t="n">
-        <v>61.70688273934482</v>
+        <v>182.4436496485601</v>
       </c>
       <c r="H10" t="n">
         <v>61.70688273934482</v>
@@ -5001,13 +5001,13 @@
         <v>497.4664265514521</v>
       </c>
       <c r="W10" t="n">
-        <v>458.6326165652691</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="X10" t="n">
-        <v>230.6430656672517</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="Y10" t="n">
-        <v>230.6430656672517</v>
+        <v>497.4664265514521</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,28 +5029,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190824</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,13 +5217,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5235,16 +5235,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>900.1991887469508</v>
       </c>
     </row>
     <row r="14">
@@ -5266,10 +5266,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5494,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,34 +5691,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,52 +5740,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3737171343197</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>597.2570777219839</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>597.2570777219839</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="23">
@@ -5971,31 +5971,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>662.1522880254209</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C25" t="n">
-        <v>493.2161050975141</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D25" t="n">
-        <v>343.0994656851783</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>248.3972582582387</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2345.361232772917</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2125.759767795858</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1836.684541140056</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1582.000052934169</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1292.582882897208</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1064.593331999191</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>843.8007528556607</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6220,28 +6220,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.2946447138411</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>916.2946447138411</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6429,7 +6429,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,10 +6460,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075811</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.079034721979</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2311.700279152292</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1729.097755135313</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,16 +6697,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6718,7 +6718,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929.7309773356195</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2393.353712454441</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2210.498878109345</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1990.897413132287</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U34" t="n">
-        <v>1701.822186476484</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V34" t="n">
-        <v>1447.137698270597</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W34" t="n">
-        <v>1157.720528233637</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X34" t="n">
-        <v>929.7309773356195</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y34" t="n">
-        <v>929.7309773356195</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6964,22 +6964,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7311,22 +7311,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,7 +7408,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7614,7 +7614,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7645,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7736,13 +7736,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1725.169940187922</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1470.485451982035</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1181.068281945074</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>953.0787310470569</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>732.2861519035267</v>
       </c>
     </row>
   </sheetData>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>202.6501519448723</v>
       </c>
       <c r="W13" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>57.22910392194107</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>34.09972495271755</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>68.52575990662532</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
-        <v>13.3019692955605</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>21.81301072096153</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>6.257951202385186</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.30196929556038</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>55.21102825632966</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>24.63391537253442</v>
+        <v>52.83923663127401</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>36.41624546988359</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>660965.8788773126</v>
+        <v>660965.8788773128</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>660965.8788773126</v>
+        <v>660965.8788773128</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>660965.8788773126</v>
+        <v>660965.8788773128</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>660965.8788773126</v>
+        <v>660965.8788773128</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710686</v>
+        <v>779989.6813710685</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710694</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="F2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="G2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="F2" t="n">
-        <v>766789.2697055063</v>
-      </c>
-      <c r="G2" t="n">
-        <v>766789.269705506</v>
-      </c>
       <c r="H2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="I2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.269705506</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="M2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="N2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="O2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>766789.2697055059</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253136</v>
+        <v>270592.3620253138</v>
       </c>
       <c r="D3" t="n">
         <v>115410.0540231916</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742654</v>
+        <v>601443.2075742655</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854468</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765882009</v>
+        <v>62913.63765882008</v>
       </c>
       <c r="L3" t="n">
         <v>27875.25362197454</v>
@@ -26420,7 +26420,7 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263458</v>
+        <v>206604.4229263459</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
@@ -26438,10 +26438,10 @@
         <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
         <v>76435.73471936828</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-146889.5863955203</v>
+        <v>-146889.5863955204</v>
       </c>
       <c r="C6" t="n">
-        <v>226357.1617000417</v>
+        <v>226357.1617000414</v>
       </c>
       <c r="D6" t="n">
         <v>405177.5554031077</v>
       </c>
       <c r="E6" t="n">
-        <v>47829.56908108448</v>
+        <v>48142.2104100057</v>
       </c>
       <c r="F6" t="n">
-        <v>649272.7766553501</v>
+        <v>649585.4179842712</v>
       </c>
       <c r="G6" t="n">
-        <v>649272.77665535</v>
+        <v>649585.4179842708</v>
       </c>
       <c r="H6" t="n">
-        <v>649272.7766553499</v>
+        <v>649585.4179842714</v>
       </c>
       <c r="I6" t="n">
-        <v>649272.7766553498</v>
+        <v>649585.4179842712</v>
       </c>
       <c r="J6" t="n">
-        <v>600207.8319268051</v>
+        <v>600520.4732557266</v>
       </c>
       <c r="K6" t="n">
-        <v>586359.1389965296</v>
+        <v>586671.7803254513</v>
       </c>
       <c r="L6" t="n">
-        <v>621397.5230333753</v>
+        <v>621710.1643622967</v>
       </c>
       <c r="M6" t="n">
-        <v>492126.3961037517</v>
+        <v>492439.0374326729</v>
       </c>
       <c r="N6" t="n">
-        <v>649272.7766553498</v>
+        <v>649585.4179842713</v>
       </c>
       <c r="O6" t="n">
-        <v>649272.7766553499</v>
+        <v>649585.4179842711</v>
       </c>
       <c r="P6" t="n">
-        <v>649272.7766553498</v>
+        <v>649585.4179842712</v>
       </c>
     </row>
   </sheetData>
@@ -26709,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
         <v>758.8996292950626</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
         <v>431.9757039594724</v>
@@ -26804,10 +26804,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821579</v>
+        <v>210.429688382158</v>
       </c>
       <c r="D3" t="n">
         <v>94.81103524262153</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039899</v>
+        <v>514.2648358039901</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931524</v>
+        <v>244.4501167931525</v>
       </c>
       <c r="D4" t="n">
         <v>110.1392527666908</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931526</v>
+        <v>244.4501167931525</v>
       </c>
       <c r="L4" t="n">
         <v>110.1392527666908</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931524</v>
+        <v>244.4501167931525</v>
       </c>
       <c r="L4" t="n">
         <v>110.1392527666908</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>362.2030289879114</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>269.8287907659936</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -27435,19 +27435,19 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871033</v>
+        <v>63.64367339871047</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038149</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.205513512149</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="3">
@@ -27463,10 +27463,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27481,7 +27481,7 @@
         <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>110.046276994256</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377091</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>112.9430542296732</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127.6160339275028</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825415</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159723</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27593,7 +27593,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>234.0491352390158</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>132.8389509647114</v>
       </c>
       <c r="H5" t="n">
-        <v>286.8089189964682</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760026</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27694,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.4703783524613</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>43.32085084937507</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074782</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
         <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>80.16147515887995</v>
       </c>
       <c r="Y6" t="n">
-        <v>196.2944058993055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27779,10 +27779,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>35.29174303395327</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589139</v>
+        <v>0.05220993431904475</v>
       </c>
       <c r="R7" t="n">
         <v>115.7603165166223</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>154.6840354145081</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>239.0356706066093</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>11.39188093250797</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
@@ -27991,10 +27991,10 @@
         <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>13.22994759380771</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28022,13 +28022,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>29.01041212112214</v>
       </c>
       <c r="I10" t="n">
         <v>109.1541654470835</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>248.0775264502699</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29094,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>8.360392837795219e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -31044,13 +31044,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31062,25 +31062,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31126,7 +31126,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,16 +31135,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31153,16 +31153,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31229,19 +31229,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,28 +31837,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>403.852496713802</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>340.4395077511221</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32074,7 +32074,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32083,19 +32083,19 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>514.8598010172136</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,28 +32311,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>514.8598010172127</v>
       </c>
       <c r="M18" t="n">
-        <v>444.2274915982891</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,13 +32800,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>381.6404378718165</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,31 +33259,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>537.262354434964</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>346.7710205055867</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>381.6404378718165</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33511,13 +33511,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,28 +33733,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>381.6404378718165</v>
       </c>
       <c r="L36" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33894,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33976,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>381.6404378718165</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33985,13 +33985,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34128,10 +34128,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34207,28 +34207,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>381.6404378718165</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34456,16 +34456,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>272.5107846304687</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>197.8432633066776</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>376.3054212373395</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>376.3054212373385</v>
       </c>
       <c r="M18" t="n">
-        <v>302.0934576762708</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,13 +36448,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>243.7989988974575</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>394.6661099905195</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>206.7892464195652</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>243.7989988974575</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37159,13 +37159,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>243.7989988974575</v>
       </c>
       <c r="L36" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37624,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>243.7989988974575</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37633,13 +37633,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,10 +37776,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>243.7989988974575</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
